--- a/stolenCars.xlsx
+++ b/stolenCars.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
     <t>Origin</t>
   </si>
   <si>
-    <t>Was it stolen</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>SUV</t>
+  </si>
+  <si>
+    <t>Stolen</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -410,16 +410,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -427,13 +427,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
@@ -444,16 +444,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,13 +461,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -478,16 +478,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,13 +495,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -512,16 +512,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,13 +529,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -546,13 +546,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -563,16 +563,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
